--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1443,19 +1443,19 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="C17">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="D17">
-        <v>49.88411764705882</v>
+        <v>49.88</v>
       </c>
       <c r="E17">
-        <v>-20.58117647058824</v>
+        <v>-20.58</v>
       </c>
       <c r="F17">
-        <v>27.67611111111111</v>
+        <v>27.68</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -1502,13 +1502,13 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="C18">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="D18">
-        <v>49.88411764705882</v>
+        <v>49.88</v>
       </c>
       <c r="E18">
         <v>0.21</v>
@@ -1520,7 +1520,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H18">
-        <v>0.8522222222222222</v>
+        <v>0.85</v>
       </c>
       <c r="I18">
         <v>0.01</v>
@@ -1561,25 +1561,25 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="C19">
-        <v>49.88352941176471</v>
+        <v>49.88</v>
       </c>
       <c r="D19">
-        <v>49.88411764705882</v>
+        <v>49.88</v>
       </c>
       <c r="E19">
-        <v>-20.58117647058824</v>
+        <v>-20.58</v>
       </c>
       <c r="F19">
-        <v>27.67611111111111</v>
+        <v>27.68</v>
       </c>
       <c r="G19">
         <v>0.21</v>
       </c>
       <c r="H19">
-        <v>0.8522222222222222</v>
+        <v>0.85</v>
       </c>
       <c r="I19">
         <v>0.71</v>
@@ -1688,7 +1688,7 @@
         <v>1.87</v>
       </c>
       <c r="E21">
-        <v>-20.58117647058824</v>
+        <v>-20.58</v>
       </c>
       <c r="F21">
         <v>1.87</v>
